--- a/data/firstDoctor.xlsx
+++ b/data/firstDoctor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\IITPMainProject\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdew\Documents\GitHub\PANP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0BF769-9694-4C84-A7AD-06FB4A6BB557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47C14883-10B8-4971-AB60-0C01034BBFC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4891B77E-BF08-4474-851D-69564AB0B121}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4891B77E-BF08-4474-851D-69564AB0B121}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -492,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C28C6F-A8C6-4657-9AFD-E5B07A2A9CF0}">
-  <dimension ref="A1:CX3"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="CF19" sqref="CF19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -504,925 +504,1112 @@
     <col min="2" max="102" width="6.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="E1" s="2">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="F1" s="2">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="G1" s="2">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="H1" s="2">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="I1" s="2">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="J1" s="2">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="K1" s="2">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="L1" s="2">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="M1" s="2">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="N1" s="2">
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="O1" s="2">
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="P1" s="2">
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="R1" s="2">
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="S1" s="2">
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="T1" s="2">
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="U1" s="2">
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="V1" s="2">
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="W1" s="2">
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="X1" s="2">
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="B27" s="3">
+        <v>185.63569474869948</v>
+      </c>
+      <c r="C27" s="3">
+        <v>20.924909470319569</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="B28" s="3">
+        <v>185.63569474869948</v>
+      </c>
+      <c r="C28" s="3">
+        <v>20.924909470319569</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="B29" s="3">
+        <v>185.63569474869948</v>
+      </c>
+      <c r="C29" s="3">
+        <v>20.924909470319569</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="B30" s="3">
+        <v>185.63569474869948</v>
+      </c>
+      <c r="C30" s="3">
+        <v>20.924909470319569</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="B31" s="3">
+        <v>185.63569474869948</v>
+      </c>
+      <c r="C31" s="3">
+        <v>20.924909470319569</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="B32" s="3">
+        <v>167.04738731510693</v>
+      </c>
+      <c r="C32" s="3">
+        <v>17.352799014953071</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="B33" s="3">
+        <v>167.04738731510693</v>
+      </c>
+      <c r="C33" s="3">
+        <v>17.352799014953071</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="B34" s="3">
+        <v>167.04738731510693</v>
+      </c>
+      <c r="C34" s="3">
+        <v>17.352799014953071</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="B35" s="3">
+        <v>167.04738731510693</v>
+      </c>
+      <c r="C35" s="3">
+        <v>17.352799014953071</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="B36" s="3">
+        <v>167.04738731510693</v>
+      </c>
+      <c r="C36" s="3">
+        <v>17.352799014953071</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="B37" s="3">
+        <v>149.52286611959605</v>
+      </c>
+      <c r="C37" s="3">
+        <v>15.449237747582364</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="B38" s="3">
+        <v>149.52286611959605</v>
+      </c>
+      <c r="C38" s="3">
+        <v>15.449237747582364</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="B39" s="3">
+        <v>149.52286611959605</v>
+      </c>
+      <c r="C39" s="3">
+        <v>15.449237747582364</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="AO1" s="2">
+      <c r="B40" s="3">
+        <v>149.52286611959605</v>
+      </c>
+      <c r="C40" s="3">
+        <v>15.449237747582364</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="AP1" s="2">
+      <c r="B41" s="3">
+        <v>149.52286611959605</v>
+      </c>
+      <c r="C41" s="3">
+        <v>15.449237747582364</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="AQ1" s="2">
+      <c r="B42" s="3">
+        <v>144.90772445354446</v>
+      </c>
+      <c r="C42" s="3">
+        <v>13.720226335406434</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="AR1" s="2">
+      <c r="B43" s="3">
+        <v>144.90772445354446</v>
+      </c>
+      <c r="C43" s="3">
+        <v>13.720226335406434</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="AS1" s="2">
+      <c r="B44" s="3">
+        <v>144.90772445354446</v>
+      </c>
+      <c r="C44" s="3">
+        <v>13.720226335406434</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="AT1" s="2">
+      <c r="B45" s="3">
+        <v>144.90772445354446</v>
+      </c>
+      <c r="C45" s="3">
+        <v>13.720226335406434</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="AU1" s="2">
+      <c r="B46" s="3">
+        <v>144.90772445354446</v>
+      </c>
+      <c r="C46" s="3">
+        <v>13.720226335406434</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="AV1" s="2">
+      <c r="B47" s="3">
+        <v>104.43874654283232</v>
+      </c>
+      <c r="C47" s="3">
+        <v>10.610881195682033</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="AW1" s="2">
+      <c r="B48" s="3">
+        <v>104.43874654283232</v>
+      </c>
+      <c r="C48" s="3">
+        <v>10.610881195682033</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="AX1" s="2">
+      <c r="B49" s="3">
+        <v>104.43874654283232</v>
+      </c>
+      <c r="C49" s="3">
+        <v>10.610881195682033</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="AY1" s="2">
+      <c r="B50" s="3">
+        <v>104.43874654283232</v>
+      </c>
+      <c r="C50" s="3">
+        <v>10.610881195682033</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="AZ1" s="2">
+      <c r="B51" s="3">
+        <v>104.43874654283232</v>
+      </c>
+      <c r="C51" s="3">
+        <v>10.610881195682033</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>50</v>
       </c>
-      <c r="BA1" s="2">
+      <c r="B52" s="3">
+        <v>89.96758082022086</v>
+      </c>
+      <c r="C52" s="3">
+        <v>9.8219462360565348</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="BB1" s="2">
+      <c r="B53" s="3">
+        <v>89.96758082022086</v>
+      </c>
+      <c r="C53" s="3">
+        <v>9.8219462360565348</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
         <v>52</v>
       </c>
-      <c r="BC1" s="2">
+      <c r="B54" s="3">
+        <v>89.96758082022086</v>
+      </c>
+      <c r="C54" s="3">
+        <v>9.8219462360565348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="BD1" s="2">
+      <c r="B55" s="3">
+        <v>89.96758082022086</v>
+      </c>
+      <c r="C55" s="3">
+        <v>9.8219462360565348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
         <v>54</v>
       </c>
-      <c r="BE1" s="2">
+      <c r="B56" s="3">
+        <v>89.96758082022086</v>
+      </c>
+      <c r="C56" s="3">
+        <v>9.8219462360565348</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="BF1" s="2">
+      <c r="B57" s="3">
+        <v>0</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
         <v>56</v>
       </c>
-      <c r="BG1" s="2">
+      <c r="B58" s="3">
+        <v>0</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="BH1" s="2">
+      <c r="B59" s="3">
+        <v>0</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
         <v>58</v>
       </c>
-      <c r="BI1" s="2">
+      <c r="B60" s="3">
+        <v>0</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="BJ1" s="2">
+      <c r="B61" s="3">
+        <v>0</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
         <v>60</v>
       </c>
-      <c r="BK1" s="2">
+      <c r="B62" s="3">
+        <v>0</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="BL1" s="2">
+      <c r="B63" s="3">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
         <v>62</v>
       </c>
-      <c r="BM1" s="2">
+      <c r="B64" s="3">
+        <v>0</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
         <v>63</v>
       </c>
-      <c r="BN1" s="2">
+      <c r="B65" s="3">
+        <v>0</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
         <v>64</v>
       </c>
-      <c r="BO1" s="2">
+      <c r="B66" s="3">
+        <v>0</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
         <v>65</v>
       </c>
-      <c r="BP1" s="2">
+      <c r="B67" s="3">
+        <v>0</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
         <v>66</v>
       </c>
-      <c r="BQ1" s="2">
+      <c r="B68" s="3">
+        <v>0</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
         <v>67</v>
       </c>
-      <c r="BR1" s="2">
+      <c r="B69" s="3">
+        <v>0</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
         <v>68</v>
       </c>
-      <c r="BS1" s="2">
+      <c r="B70" s="3">
+        <v>0</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
         <v>69</v>
       </c>
-      <c r="BT1" s="2">
+      <c r="B71" s="3">
+        <v>0</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
         <v>70</v>
       </c>
-      <c r="BU1" s="2">
+      <c r="B72" s="3">
+        <v>0</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
         <v>71</v>
       </c>
-      <c r="BV1" s="2">
+      <c r="B73" s="3">
+        <v>0</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
         <v>72</v>
       </c>
-      <c r="BW1" s="2">
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
         <v>73</v>
       </c>
-      <c r="BX1" s="2">
+      <c r="B75" s="3">
+        <v>0</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
         <v>74</v>
       </c>
-      <c r="BY1" s="2">
+      <c r="B76" s="3">
+        <v>0</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
         <v>75</v>
       </c>
-      <c r="BZ1" s="2">
+      <c r="B77" s="3">
+        <v>0</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
         <v>76</v>
       </c>
-      <c r="CA1" s="2">
+      <c r="B78" s="3">
+        <v>0</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
         <v>77</v>
       </c>
-      <c r="CB1" s="2">
+      <c r="B79" s="3">
+        <v>0</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
         <v>78</v>
       </c>
-      <c r="CC1" s="2">
+      <c r="B80" s="3">
+        <v>0</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
         <v>79</v>
       </c>
-      <c r="CD1" s="2">
+      <c r="B81" s="3">
+        <v>0</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
         <v>80</v>
       </c>
-      <c r="CE1" s="2">
+      <c r="B82" s="3">
+        <v>0</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
         <v>81</v>
       </c>
-      <c r="CF1" s="2">
+      <c r="B83" s="3">
+        <v>0</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
         <v>82</v>
       </c>
-      <c r="CG1" s="2">
+      <c r="B84" s="3">
+        <v>0</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
         <v>83</v>
       </c>
-      <c r="CH1" s="2">
+      <c r="B85" s="3">
+        <v>0</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
         <v>84</v>
       </c>
-      <c r="CI1" s="2">
+      <c r="B86" s="3">
+        <v>0</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
         <v>85</v>
       </c>
-      <c r="CJ1" s="2">
+      <c r="B87" s="3">
+        <v>0</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
         <v>86</v>
       </c>
-      <c r="CK1" s="2">
+      <c r="B88" s="3">
+        <v>0</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
         <v>87</v>
       </c>
-      <c r="CL1" s="2">
+      <c r="B89" s="3">
+        <v>0</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
         <v>88</v>
       </c>
-      <c r="CM1" s="2">
+      <c r="B90" s="3">
+        <v>0</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
         <v>89</v>
       </c>
-      <c r="CN1" s="2">
+      <c r="B91" s="3">
+        <v>0</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
         <v>90</v>
       </c>
-      <c r="CO1" s="2">
+      <c r="B92" s="3">
+        <v>0</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
         <v>91</v>
       </c>
-      <c r="CP1" s="2">
+      <c r="B93" s="3">
+        <v>0</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
         <v>92</v>
       </c>
-      <c r="CQ1" s="2">
+      <c r="B94" s="3">
+        <v>0</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
         <v>93</v>
       </c>
-      <c r="CR1" s="2">
+      <c r="B95" s="3">
+        <v>0</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
         <v>94</v>
       </c>
-      <c r="CS1" s="2">
+      <c r="B96" s="3">
+        <v>0</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
         <v>95</v>
       </c>
-      <c r="CT1" s="2">
+      <c r="B97" s="3">
+        <v>0</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
         <v>96</v>
       </c>
-      <c r="CU1" s="2">
+      <c r="B98" s="3">
+        <v>0</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
         <v>97</v>
       </c>
-      <c r="CV1" s="2">
+      <c r="B99" s="3">
+        <v>0</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
         <v>98</v>
       </c>
-      <c r="CW1" s="2">
+      <c r="B100" s="3">
+        <v>0</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
         <v>99</v>
       </c>
-      <c r="CX1" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2">
-        <v>0</v>
-      </c>
-      <c r="X2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>185.63569474869948</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>185.63569474869948</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>185.63569474869948</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>185.63569474869948</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>185.63569474869948</v>
-      </c>
-      <c r="AF2" s="3">
-        <v>167.04738731510693</v>
-      </c>
-      <c r="AG2" s="3">
-        <v>167.04738731510693</v>
-      </c>
-      <c r="AH2" s="3">
-        <v>167.04738731510693</v>
-      </c>
-      <c r="AI2" s="3">
-        <v>167.04738731510693</v>
-      </c>
-      <c r="AJ2" s="3">
-        <v>167.04738731510693</v>
-      </c>
-      <c r="AK2" s="3">
-        <v>149.52286611959605</v>
-      </c>
-      <c r="AL2" s="3">
-        <v>149.52286611959605</v>
-      </c>
-      <c r="AM2" s="3">
-        <v>149.52286611959605</v>
-      </c>
-      <c r="AN2" s="3">
-        <v>149.52286611959605</v>
-      </c>
-      <c r="AO2" s="3">
-        <v>149.52286611959605</v>
-      </c>
-      <c r="AP2" s="3">
-        <v>144.90772445354446</v>
-      </c>
-      <c r="AQ2" s="3">
-        <v>144.90772445354446</v>
-      </c>
-      <c r="AR2" s="3">
-        <v>144.90772445354446</v>
-      </c>
-      <c r="AS2" s="3">
-        <v>144.90772445354446</v>
-      </c>
-      <c r="AT2" s="3">
-        <v>144.90772445354446</v>
-      </c>
-      <c r="AU2" s="3">
-        <v>104.43874654283232</v>
-      </c>
-      <c r="AV2" s="3">
-        <v>104.43874654283232</v>
-      </c>
-      <c r="AW2" s="3">
-        <v>104.43874654283232</v>
-      </c>
-      <c r="AX2" s="3">
-        <v>104.43874654283232</v>
-      </c>
-      <c r="AY2" s="3">
-        <v>104.43874654283232</v>
-      </c>
-      <c r="AZ2" s="3">
-        <v>89.96758082022086</v>
-      </c>
-      <c r="BA2" s="3">
-        <v>89.96758082022086</v>
-      </c>
-      <c r="BB2" s="3">
-        <v>89.96758082022086</v>
-      </c>
-      <c r="BC2" s="3">
-        <v>89.96758082022086</v>
-      </c>
-      <c r="BD2" s="3">
-        <v>89.96758082022086</v>
-      </c>
-      <c r="BE2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BL2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BV2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BX2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BY2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BZ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CB2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CC2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CE2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CF2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CG2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CI2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CJ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CL2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CM2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CO2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CP2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CQ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CR2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CS2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CT2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CV2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CW2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CX2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>20.924909470319569</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>20.924909470319569</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>20.924909470319569</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>20.924909470319569</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>20.924909470319569</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>17.352799014953071</v>
-      </c>
-      <c r="AG3" s="3">
-        <v>17.352799014953071</v>
-      </c>
-      <c r="AH3" s="3">
-        <v>17.352799014953071</v>
-      </c>
-      <c r="AI3" s="3">
-        <v>17.352799014953071</v>
-      </c>
-      <c r="AJ3" s="3">
-        <v>17.352799014953071</v>
-      </c>
-      <c r="AK3" s="3">
-        <v>15.449237747582364</v>
-      </c>
-      <c r="AL3" s="3">
-        <v>15.449237747582364</v>
-      </c>
-      <c r="AM3" s="3">
-        <v>15.449237747582364</v>
-      </c>
-      <c r="AN3" s="3">
-        <v>15.449237747582364</v>
-      </c>
-      <c r="AO3" s="3">
-        <v>15.449237747582364</v>
-      </c>
-      <c r="AP3" s="3">
-        <v>13.720226335406434</v>
-      </c>
-      <c r="AQ3" s="3">
-        <v>13.720226335406434</v>
-      </c>
-      <c r="AR3" s="3">
-        <v>13.720226335406434</v>
-      </c>
-      <c r="AS3" s="3">
-        <v>13.720226335406434</v>
-      </c>
-      <c r="AT3" s="3">
-        <v>13.720226335406434</v>
-      </c>
-      <c r="AU3" s="3">
-        <v>10.610881195682033</v>
-      </c>
-      <c r="AV3" s="3">
-        <v>10.610881195682033</v>
-      </c>
-      <c r="AW3" s="3">
-        <v>10.610881195682033</v>
-      </c>
-      <c r="AX3" s="3">
-        <v>10.610881195682033</v>
-      </c>
-      <c r="AY3" s="3">
-        <v>10.610881195682033</v>
-      </c>
-      <c r="AZ3" s="3">
-        <v>9.8219462360565348</v>
-      </c>
-      <c r="BA3" s="3">
-        <v>9.8219462360565348</v>
-      </c>
-      <c r="BB3" s="3">
-        <v>9.8219462360565348</v>
-      </c>
-      <c r="BC3" s="3">
-        <v>9.8219462360565348</v>
-      </c>
-      <c r="BD3" s="3">
-        <v>9.8219462360565348</v>
-      </c>
-      <c r="BE3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BL3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BV3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BX3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BY3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BZ3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CB3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CC3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CF3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CI3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CJ3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CL3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CO3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CP3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CQ3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CR3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CS3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CT3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CV3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CW3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CX3" s="3">
+      <c r="B101" s="3">
+        <v>0</v>
+      </c>
+      <c r="C101" s="3">
         <v>0</v>
       </c>
     </row>

--- a/data/firstDoctor.xlsx
+++ b/data/firstDoctor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdew\Documents\GitHub\PANP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47C14883-10B8-4971-AB60-0C01034BBFC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FBDF04-8887-474B-8D53-53BEA66FDC94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4891B77E-BF08-4474-851D-69564AB0B121}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>남</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>50-54</t>
+  </si>
+  <si>
+    <t>연령</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -495,7 +499,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -505,7 +509,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>

--- a/data/firstDoctor.xlsx
+++ b/data/firstDoctor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdew\Documents\GitHub\PANP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FBDF04-8887-474B-8D53-53BEA66FDC94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B96D0B6-733F-4C7E-B515-46A4C67EE795}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4891B77E-BF08-4474-851D-69564AB0B121}"/>
   </bookViews>
@@ -499,7 +499,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
